--- a/biology/Zoologie/Antechinus_agilis/Antechinus_agilis.xlsx
+++ b/biology/Zoologie/Antechinus_agilis/Antechinus_agilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antechinus agilis est une espèce de mammifères marsupiaux de la famille des Dasyuridae. Ce petit spécimen de carnivore marsupial se trouve en Australie. Il se nourrit surtout de petits invertébrés tels les coccinelles et les araignées. Parfois, il mange aussi de petits lézards. La femelle accouche après 27 jours de gestation.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1998 par Christopher R. Dickman, Harry E. Parnaby, Matthew S. Crowther et D. H. King[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1998 par Christopher R. Dickman, Harry E. Parnaby, Matthew S. Crowther et D. H. King.
 L'épithète spécifique agilis signifie « agile ». 
 Traditionnellement classée dans les Marsupiaux, cette espèce est assignée à la famille des Dasyuridae, dans l'ordre des Dasyuromorphia.
 </t>
